--- a/SchedulingData/dynamic15/pso/scheduling1_13.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,439 +462,439 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>71.36</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.024</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71.36</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.34</v>
+        <v>66.7</v>
       </c>
       <c r="E3" t="n">
-        <v>22.436</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.4</v>
+        <v>68.08</v>
       </c>
       <c r="E4" t="n">
-        <v>26.34</v>
+        <v>26.352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="D5" t="n">
-        <v>57.66</v>
+        <v>143.12</v>
       </c>
       <c r="E5" t="n">
-        <v>27.404</v>
+        <v>22.448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>37.1</v>
+        <v>59.16</v>
       </c>
       <c r="E6" t="n">
-        <v>27.48</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>143.12</v>
       </c>
       <c r="D7" t="n">
-        <v>58.2</v>
+        <v>209.16</v>
       </c>
       <c r="E7" t="n">
-        <v>26.36</v>
+        <v>18.444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37.1</v>
+        <v>59.16</v>
       </c>
       <c r="D8" t="n">
-        <v>82.2</v>
+        <v>121.14</v>
       </c>
       <c r="E8" t="n">
-        <v>24.1</v>
+        <v>23.156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>82.2</v>
+        <v>121.14</v>
       </c>
       <c r="D9" t="n">
-        <v>156.88</v>
+        <v>181.24</v>
       </c>
       <c r="E9" t="n">
-        <v>20.712</v>
+        <v>19.776</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>53.4</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>111.64</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>23.636</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>156.88</v>
+        <v>68.08</v>
       </c>
       <c r="D11" t="n">
-        <v>209.06</v>
+        <v>129.2</v>
       </c>
       <c r="E11" t="n">
-        <v>17.124</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>55.78</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
-        <v>26.592</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>58.2</v>
+        <v>129.2</v>
       </c>
       <c r="D13" t="n">
-        <v>129.62</v>
+        <v>209.38</v>
       </c>
       <c r="E13" t="n">
-        <v>22.808</v>
+        <v>19.952</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55.78</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>112.58</v>
+        <v>135.44</v>
       </c>
       <c r="E14" t="n">
-        <v>23.512</v>
+        <v>21.756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57.66</v>
+        <v>209.16</v>
       </c>
       <c r="D15" t="n">
-        <v>114.06</v>
+        <v>254.44</v>
       </c>
       <c r="E15" t="n">
-        <v>23.884</v>
+        <v>15.056</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>129.62</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>180.12</v>
+        <v>131.12</v>
       </c>
       <c r="E16" t="n">
-        <v>18.888</v>
+        <v>23.128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>112.58</v>
+        <v>135.44</v>
       </c>
       <c r="D17" t="n">
-        <v>195.78</v>
+        <v>193.54</v>
       </c>
       <c r="E17" t="n">
-        <v>20.272</v>
+        <v>17.076</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>195.78</v>
+        <v>181.24</v>
       </c>
       <c r="D18" t="n">
-        <v>253.32</v>
+        <v>238.84</v>
       </c>
       <c r="E18" t="n">
-        <v>17.148</v>
+        <v>16.136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>111.64</v>
+        <v>209.38</v>
       </c>
       <c r="D19" t="n">
-        <v>167.88</v>
+        <v>283.44</v>
       </c>
       <c r="E19" t="n">
-        <v>19.632</v>
+        <v>16.676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>114.06</v>
+        <v>131.12</v>
       </c>
       <c r="D20" t="n">
-        <v>187.06</v>
+        <v>191.7</v>
       </c>
       <c r="E20" t="n">
-        <v>19.204</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>128.34</v>
+        <v>70</v>
       </c>
       <c r="D21" t="n">
-        <v>180.72</v>
+        <v>139.4</v>
       </c>
       <c r="E21" t="n">
-        <v>18.328</v>
+        <v>23.78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>209.06</v>
+        <v>193.54</v>
       </c>
       <c r="D22" t="n">
-        <v>273.26</v>
+        <v>245.62</v>
       </c>
       <c r="E22" t="n">
-        <v>12.324</v>
+        <v>13.488</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>273.26</v>
+        <v>238.84</v>
       </c>
       <c r="D23" t="n">
-        <v>344.48</v>
+        <v>281.84</v>
       </c>
       <c r="E23" t="n">
-        <v>8.292</v>
+        <v>12.476</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>180.12</v>
+        <v>254.44</v>
       </c>
       <c r="D24" t="n">
-        <v>235.9</v>
+        <v>314.94</v>
       </c>
       <c r="E24" t="n">
-        <v>15.94</v>
+        <v>10.136</v>
       </c>
     </row>
     <row r="25">
@@ -903,36 +903,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>344.48</v>
+        <v>191.7</v>
       </c>
       <c r="D25" t="n">
-        <v>403.04</v>
+        <v>243.62</v>
       </c>
       <c r="E25" t="n">
-        <v>5.036</v>
+        <v>16.628</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>235.9</v>
+        <v>281.84</v>
       </c>
       <c r="D26" t="n">
-        <v>311.42</v>
+        <v>325.72</v>
       </c>
       <c r="E26" t="n">
-        <v>11.988</v>
+        <v>9.228</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>311.42</v>
+        <v>139.4</v>
       </c>
       <c r="D27" t="n">
-        <v>381.18</v>
+        <v>192.44</v>
       </c>
       <c r="E27" t="n">
-        <v>9.132</v>
+        <v>21.076</v>
       </c>
     </row>
     <row r="28">
@@ -960,150 +960,150 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>187.06</v>
+        <v>245.62</v>
       </c>
       <c r="D28" t="n">
-        <v>253.16</v>
+        <v>305.62</v>
       </c>
       <c r="E28" t="n">
-        <v>14.224</v>
+        <v>10.108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>180.72</v>
+        <v>243.62</v>
       </c>
       <c r="D29" t="n">
-        <v>217.82</v>
+        <v>301.88</v>
       </c>
       <c r="E29" t="n">
-        <v>16.248</v>
+        <v>13.892</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>167.88</v>
+        <v>192.44</v>
       </c>
       <c r="D30" t="n">
-        <v>206.54</v>
+        <v>234.7</v>
       </c>
       <c r="E30" t="n">
-        <v>16.896</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>381.18</v>
+        <v>301.88</v>
       </c>
       <c r="D31" t="n">
-        <v>445.26</v>
+        <v>349.32</v>
       </c>
       <c r="E31" t="n">
-        <v>5.324</v>
+        <v>10.768</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>206.54</v>
+        <v>234.7</v>
       </c>
       <c r="D32" t="n">
-        <v>275.76</v>
+        <v>290.62</v>
       </c>
       <c r="E32" t="n">
-        <v>13.104</v>
+        <v>14.528</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>217.82</v>
+        <v>314.94</v>
       </c>
       <c r="D33" t="n">
-        <v>264.18</v>
+        <v>396.26</v>
       </c>
       <c r="E33" t="n">
-        <v>13.232</v>
+        <v>6.104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>264.18</v>
+        <v>349.32</v>
       </c>
       <c r="D34" t="n">
-        <v>318.12</v>
+        <v>390.82</v>
       </c>
       <c r="E34" t="n">
-        <v>9.968</v>
+        <v>8.247999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>253.16</v>
+        <v>396.26</v>
       </c>
       <c r="D35" t="n">
-        <v>329.58</v>
+        <v>478.26</v>
       </c>
       <c r="E35" t="n">
-        <v>10.192</v>
+        <v>1.544</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>275.76</v>
+        <v>478.26</v>
       </c>
       <c r="D36" t="n">
-        <v>341.26</v>
+        <v>557.0700000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>8.183999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>329.58</v>
+        <v>390.82</v>
       </c>
       <c r="D37" t="n">
-        <v>411.58</v>
+        <v>431.24</v>
       </c>
       <c r="E37" t="n">
-        <v>5.632</v>
+        <v>5.336</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>318.12</v>
+        <v>325.72</v>
       </c>
       <c r="D38" t="n">
-        <v>386.8</v>
+        <v>393.2</v>
       </c>
       <c r="E38" t="n">
-        <v>6.72</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>411.58</v>
+        <v>305.62</v>
       </c>
       <c r="D39" t="n">
-        <v>462</v>
+        <v>369.48</v>
       </c>
       <c r="E39" t="n">
-        <v>2.72</v>
+        <v>6.852</v>
       </c>
     </row>
     <row r="40">
@@ -1188,155 +1188,155 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>253.32</v>
+        <v>283.44</v>
       </c>
       <c r="D40" t="n">
-        <v>330.62</v>
+        <v>337.14</v>
       </c>
       <c r="E40" t="n">
-        <v>14.028</v>
+        <v>13.436</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>330.62</v>
+        <v>290.62</v>
       </c>
       <c r="D41" t="n">
-        <v>415.92</v>
+        <v>351.68</v>
       </c>
       <c r="E41" t="n">
-        <v>9.108000000000001</v>
+        <v>10.552</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>462</v>
+        <v>431.24</v>
       </c>
       <c r="D42" t="n">
-        <v>523.5599999999999</v>
+        <v>486.84</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>523.5599999999999</v>
+        <v>486.84</v>
       </c>
       <c r="D43" t="n">
-        <v>592.72</v>
+        <v>553.01</v>
       </c>
       <c r="E43" t="n">
-        <v>26.744</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>341.26</v>
+        <v>337.14</v>
       </c>
       <c r="D44" t="n">
-        <v>391.26</v>
+        <v>384.74</v>
       </c>
       <c r="E44" t="n">
-        <v>4.804</v>
+        <v>11.276</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>386.8</v>
+        <v>369.48</v>
       </c>
       <c r="D45" t="n">
-        <v>420.56</v>
+        <v>443.86</v>
       </c>
       <c r="E45" t="n">
-        <v>3.984</v>
+        <v>3.044</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>420.56</v>
+        <v>351.68</v>
       </c>
       <c r="D46" t="n">
-        <v>468.78</v>
+        <v>411.34</v>
       </c>
       <c r="E46" t="n">
-        <v>0.792</v>
+        <v>7.696</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>468.78</v>
+        <v>557.0700000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>548.9</v>
+        <v>619.97</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1344,146 +1344,146 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>391.26</v>
+        <v>384.74</v>
       </c>
       <c r="D48" t="n">
-        <v>449.42</v>
+        <v>443.1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.108</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>449.42</v>
+        <v>443.1</v>
       </c>
       <c r="D49" t="n">
-        <v>548.7</v>
+        <v>532.3</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>445.26</v>
+        <v>443.86</v>
       </c>
       <c r="D50" t="n">
-        <v>489.6</v>
+        <v>497.62</v>
       </c>
       <c r="E50" t="n">
-        <v>2.02</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>403.04</v>
+        <v>497.62</v>
       </c>
       <c r="D51" t="n">
-        <v>461.8</v>
+        <v>593.5</v>
       </c>
       <c r="E51" t="n">
-        <v>1.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>461.8</v>
+        <v>393.2</v>
       </c>
       <c r="D52" t="n">
-        <v>545.08</v>
+        <v>430.3</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>415.92</v>
+        <v>430.3</v>
       </c>
       <c r="D53" t="n">
-        <v>478.4</v>
+        <v>496.12</v>
       </c>
       <c r="E53" t="n">
-        <v>5.46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>545.08</v>
+        <v>496.12</v>
       </c>
       <c r="D54" t="n">
-        <v>585.6799999999999</v>
+        <v>586.72</v>
       </c>
       <c r="E54" t="n">
-        <v>27.14</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>478.4</v>
+        <v>411.34</v>
       </c>
       <c r="D55" t="n">
-        <v>516.3</v>
+        <v>475.28</v>
       </c>
       <c r="E55" t="n">
-        <v>3.3</v>
+        <v>4.392</v>
       </c>
     </row>
     <row r="56">
@@ -1496,89 +1496,108 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>585.6799999999999</v>
+        <v>553.01</v>
       </c>
       <c r="D56" t="n">
-        <v>628.28</v>
+        <v>591.21</v>
       </c>
       <c r="E56" t="n">
-        <v>24.02</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>628.28</v>
+        <v>475.28</v>
       </c>
       <c r="D57" t="n">
-        <v>697.6799999999999</v>
+        <v>549.16</v>
       </c>
       <c r="E57" t="n">
-        <v>20.66</v>
+        <v>1.584</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>592.72</v>
+        <v>549.16</v>
       </c>
       <c r="D58" t="n">
-        <v>651.8</v>
+        <v>612.99</v>
       </c>
       <c r="E58" t="n">
-        <v>23.936</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>548.9</v>
+        <v>619.97</v>
       </c>
       <c r="D59" t="n">
-        <v>620.22</v>
+        <v>665.29</v>
       </c>
       <c r="E59" t="n">
-        <v>27.008</v>
+        <v>23.968</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>548.7</v>
+        <v>612.99</v>
       </c>
       <c r="D60" t="n">
-        <v>624.3200000000001</v>
+        <v>666.61</v>
       </c>
       <c r="E60" t="n">
-        <v>27.088</v>
+        <v>26.808</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>pond45</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>591.21</v>
+      </c>
+      <c r="D61" t="n">
+        <v>647.47</v>
+      </c>
+      <c r="E61" t="n">
+        <v>23.864</v>
       </c>
     </row>
   </sheetData>
